--- a/data/PerformanceTest.xlsx
+++ b/data/PerformanceTest.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="addDepartments" sheetId="1" r:id="rId1"/>
     <sheet name="addStreams" sheetId="2" r:id="rId2"/>
+    <sheet name="addStream" sheetId="3" r:id="rId3"/>
+    <sheet name="addCandidates" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>addDepartments</t>
   </si>
@@ -84,6 +86,45 @@
   </si>
   <si>
     <t>Stream1, Stream2,Stream3,Stream4,Stream5,Stream6,Stream7,Stream8,Stream9,Stream10,Stream11,Stream12,Stream13,Stream14</t>
+  </si>
+  <si>
+    <t>Olesia;Kotsiuba;;21.09.1990;Olesia.Kotsiuba@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Daria;Poluektova;;21.09.1990;dpoluectova@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Tetyana;Shyrshova;;21.09.1990;Tetyana_Shyrshova@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Roman;Riznyk;;21.09.1990;Roman_Riznyk@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>iryna;perekhod;;21.09.1990;iryna_perekhod@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Anastasiia;Borodaievska;;21.09.1990;Anastasiia_Borodsievska@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Denys;Novikov;;21.09.1990;dnovikov4@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Yehor;Yeshchenko;;21.09.1990;Yehor_Yeshchenko@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Roman;Rastiehaiev;;21.09.1990;Roman_Rastiehaiev@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Viktoriia;Panko;;21.09.1990;Viktoriia_Panko@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Olha;Borodkina;;21.09.1990;Olha_Borodkina@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Rostyslav;Biletskyi;;21.09.1990;rostyslav.biletskyi@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>For testing</t>
   </si>
 </sst>
 </file>
@@ -119,8 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -728,4 +773,138 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>